--- a/output/fit_clients/fit_round_243.xlsx
+++ b/output/fit_clients/fit_round_243.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2397969900.689324</v>
+        <v>1993249763.004636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1064739660521443</v>
+        <v>0.07866242260133825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04405152090638782</v>
+        <v>0.03614038355880474</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1198984999.459401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2446965176.940501</v>
+        <v>2409106499.444767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1126673423554157</v>
+        <v>0.1597343718642871</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04544270033564338</v>
+        <v>0.04525530546097952</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1223482697.741552</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3671229657.995088</v>
+        <v>4817877938.643633</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1569265683343438</v>
+        <v>0.135167123305875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03184244495554472</v>
+        <v>0.02535985779753375</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1835614819.886289</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2854423320.501505</v>
+        <v>2857705432.343278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07020512933196643</v>
+        <v>0.08802038572251744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04414475384761846</v>
+        <v>0.03172227830779795</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1427211739.729963</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1776043133.631015</v>
+        <v>2362783419.795012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09994303600206052</v>
+        <v>0.1373862111612223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03418865637567502</v>
+        <v>0.05165738295498692</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>888021620.6395307</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2991217643.7171</v>
+        <v>2657195701.935002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06255774709912361</v>
+        <v>0.09305856543164788</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03094325941817963</v>
+        <v>0.04371086537482398</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>76</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1495608787.596209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3744664635.407266</v>
+        <v>2595440589.446887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149769685136202</v>
+        <v>0.2170373620759172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02145177668430216</v>
+        <v>0.03094681763630839</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1872332451.33193</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2104029112.793963</v>
+        <v>2153077535.229093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1742344415121764</v>
+        <v>0.1697285446582912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03609303841419006</v>
+        <v>0.03542451426366997</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1052014568.570846</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4948745370.881759</v>
+        <v>4922663013.194721</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1735861815066049</v>
+        <v>0.183098748641597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04516569657547993</v>
+        <v>0.04517967039906882</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>102</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2474372780.778491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2762931304.463769</v>
+        <v>2962251196.892879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1838968780857723</v>
+        <v>0.1539398697506796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04349971272584557</v>
+        <v>0.03736218638323364</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>101</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1381465578.676273</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2345370266.86465</v>
+        <v>2359494673.80424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1534428341142523</v>
+        <v>0.1524951407297396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04804767152666767</v>
+        <v>0.05399789755783669</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1172685091.507365</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4673299225.250396</v>
+        <v>5117509882.60649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08453946930778494</v>
+        <v>0.07803403530345229</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03114964691566026</v>
+        <v>0.03030904302789779</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>82</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2336649633.339015</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3188915740.321609</v>
+        <v>3045303261.782051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1849835534433144</v>
+        <v>0.1852389606693792</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04113782051342689</v>
+        <v>0.0333525267577414</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1594457890.915959</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1369650813.908701</v>
+        <v>1725752477.913624</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1073394553108204</v>
+        <v>0.08477708135394312</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03328874190677469</v>
+        <v>0.04566094255355616</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>684825462.8919241</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1825873553.518984</v>
+        <v>2749378976.609793</v>
       </c>
       <c r="F16" t="n">
-        <v>0.101009577548317</v>
+        <v>0.0986140529324689</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04165893208080895</v>
+        <v>0.04960503606740116</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>43</v>
-      </c>
-      <c r="J16" t="n">
-        <v>912936867.8028457</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4054014020.152557</v>
+        <v>5225362179.025774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1403547958735695</v>
+        <v>0.1583990044792027</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03800119718542212</v>
+        <v>0.03353771266925853</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>71</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2027007042.019819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3180899959.557655</v>
+        <v>2976878715.06981</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1504505851232261</v>
+        <v>0.1635148254847576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02365140403959192</v>
+        <v>0.03126635685846705</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1590449996.909224</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1194668451.866646</v>
+        <v>927299451.7045842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1764151741256486</v>
+        <v>0.1380927575998941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02483660459840952</v>
+        <v>0.0220259581172418</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>597334302.5283666</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2421745258.333316</v>
+        <v>2583034061.751777</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1580037296489536</v>
+        <v>0.1071047173359909</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02416837180822734</v>
+        <v>0.02719793023341878</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1210872610.58034</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2121757011.105435</v>
+        <v>1982283829.745855</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07524734369459719</v>
+        <v>0.07500516315894448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04374408964217637</v>
+        <v>0.03520597579322647</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1060878529.849242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3158680691.895499</v>
+        <v>3363211349.762682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148143197726972</v>
+        <v>0.09339356031335816</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05174450385669865</v>
+        <v>0.0523397273517249</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1579340397.964846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>980989195.4453454</v>
+        <v>1282120881.27257</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1628884567179058</v>
+        <v>0.1560352383878882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04882782920187505</v>
+        <v>0.03966736439852436</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>490494671.1011179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3605558766.736123</v>
+        <v>2666080497.285091</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1327230597368364</v>
+        <v>0.1337467074997697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03573255773027008</v>
+        <v>0.03671803454454104</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>71</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1802779377.882627</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1456448060.858469</v>
+        <v>951119642.9545306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09597216810951074</v>
+        <v>0.07889978153186929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01999315911156853</v>
+        <v>0.02649032273284256</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>728223989.3846022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>972375707.6595534</v>
+        <v>1200949995.412013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1016791566213057</v>
+        <v>0.07609858332962688</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03407074758949152</v>
+        <v>0.03244391525087149</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>486187819.125086</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4027605182.567466</v>
+        <v>3655096426.398798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1559908090343177</v>
+        <v>0.1278230738413445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02001162271409194</v>
+        <v>0.02526625456752266</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2013802600.033244</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2730391943.066896</v>
+        <v>3143540875.299608</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0963664434617523</v>
+        <v>0.09597632948703347</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03542415018598587</v>
+        <v>0.0450706297807039</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1365195959.348037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3601303213.694383</v>
+        <v>3702362839.102546</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1471991331037051</v>
+        <v>0.101932503816561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0370413860078378</v>
+        <v>0.04640353042190037</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>108</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1800651651.293755</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1516976162.155712</v>
+        <v>1545279019.797425</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1349789620849771</v>
+        <v>0.08953001061648175</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03465565198954912</v>
+        <v>0.02998683127568444</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>758488063.5004262</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1289160999.815769</v>
+        <v>1341335353.799332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07881110858343206</v>
+        <v>0.08189478418790891</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0408544757061287</v>
+        <v>0.04207154374618412</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>644580430.381261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1167228537.73966</v>
+        <v>1579580531.539937</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07945856265159312</v>
+        <v>0.07591624581607306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03350017085704018</v>
+        <v>0.03402475740056463</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>583614268.2854414</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2732543499.633812</v>
+        <v>2231960706.284256</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2052767689633366</v>
+        <v>0.1340939295225114</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03820673902232825</v>
+        <v>0.04411490541381525</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>73</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1366271768.213831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1242056374.621806</v>
+        <v>1513121481.871129</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092842746888427</v>
+        <v>0.08500054463856915</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02647395814409585</v>
+        <v>0.02812100964263651</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>621028185.4617456</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1106354283.412457</v>
+        <v>1117381555.359931</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08788782694115689</v>
+        <v>0.09585906558579094</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0325952537207299</v>
+        <v>0.04101711800285377</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>553177136.9693022</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3226560154.573038</v>
+        <v>2982396878.302493</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1308230616219044</v>
+        <v>0.138331970608776</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02109146410644257</v>
+        <v>0.02323857810146695</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1613280041.054082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2096706542.318039</v>
+        <v>2322410901.72294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123968987285088</v>
+        <v>0.107255387403526</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03574840107081903</v>
+        <v>0.02640846799784369</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1048353311.727302</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2185264983.021432</v>
+        <v>1822714027.678925</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08600224691065492</v>
+        <v>0.0826778376238992</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03102772048517424</v>
+        <v>0.03310924637145942</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1092632443.957373</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1857600128.865692</v>
+        <v>1514640731.464731</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1648521964579013</v>
+        <v>0.1767065100868157</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02230342233299389</v>
+        <v>0.03187976330154724</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>928800080.5628341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1343673699.869776</v>
+        <v>1517971188.156265</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1206929551218607</v>
+        <v>0.1415908038077365</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04574983517463492</v>
+        <v>0.04395232826128938</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>671836855.2649559</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2456010457.416219</v>
+        <v>2104693201.022724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1042143583891109</v>
+        <v>0.1427793849547302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03924869889829016</v>
+        <v>0.03038063730549067</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1228005258.327172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3959628936.093754</v>
+        <v>4042536230.246114</v>
       </c>
       <c r="F42" t="n">
-        <v>0.109785350097572</v>
+        <v>0.1132822193092114</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04086131956905401</v>
+        <v>0.02973665101776784</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1979814494.552489</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2364669715.740173</v>
+        <v>3004129283.902514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1960828562733156</v>
+        <v>0.1452366323705321</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01568891377487003</v>
+        <v>0.02324131476082165</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>84</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1182334920.114696</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1865957221.021286</v>
+        <v>1439197131.325093</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09363395709767723</v>
+        <v>0.0982647357547434</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03472761008280149</v>
+        <v>0.03108659358212364</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>932978690.0865051</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2380845141.395864</v>
+        <v>2065103972.666662</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875172010273818</v>
+        <v>0.1538897221103841</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05559050193920383</v>
+        <v>0.04287671343136393</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1190422599.922512</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4965252928.624696</v>
+        <v>4667741531.294054</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1620493787294378</v>
+        <v>0.1407984484186533</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04718589961236521</v>
+        <v>0.04946103486892729</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>87</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2482626489.133557</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3842652417.735405</v>
+        <v>3906343248.278883</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2013655603956214</v>
+        <v>0.1788064924388084</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04592745964524905</v>
+        <v>0.03647601525261027</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>65</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1921326199.085615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4465281192.492841</v>
+        <v>2971561904.76403</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08423719138759619</v>
+        <v>0.08620071579777842</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03758328969188362</v>
+        <v>0.02674096884937991</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2232640603.544851</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1224170243.66879</v>
+        <v>1778992949.389686</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1652698833570556</v>
+        <v>0.1832286765294844</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03876145902070369</v>
+        <v>0.0407909592127874</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>612085196.7364315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4115453277.500452</v>
+        <v>3160232143.597527</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1630135906239601</v>
+        <v>0.1119593143079848</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0395591786580536</v>
+        <v>0.03702850988641725</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>83</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2057726619.215588</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1340054276.337477</v>
+        <v>1517951904.572286</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1485318781580624</v>
+        <v>0.195140374266035</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03390094753497152</v>
+        <v>0.03858664712874413</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>670027167.0184613</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3222232799.381456</v>
+        <v>4414996702.09788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1163365001495311</v>
+        <v>0.1114223986294249</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05596516010097777</v>
+        <v>0.05000436601451782</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>100</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1611116501.940448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3044031095.962187</v>
+        <v>3698319389.693673</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1573916291972132</v>
+        <v>0.1853672644494249</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02594764512105361</v>
+        <v>0.03162277917747584</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>70</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1522015577.367569</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3622132700.16678</v>
+        <v>4257506506.828014</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1617763574602333</v>
+        <v>0.1348574765715569</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04853451384132097</v>
+        <v>0.03304403611193645</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1811066384.472163</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3752323331.19438</v>
+        <v>3078370753.451275</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1486692261348438</v>
+        <v>0.1811748311297599</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02164613446480033</v>
+        <v>0.02836166159837736</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>70</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1876161629.567872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1455719816.700894</v>
+        <v>1695234910.261612</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1645238216633208</v>
+        <v>0.1628441620486439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04433282888586733</v>
+        <v>0.03578747527340199</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>727859957.1322409</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3652210557.041588</v>
+        <v>4482841740.538013</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1260510700184043</v>
+        <v>0.1194659552200245</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02595280105398596</v>
+        <v>0.02712010576062328</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>77</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1826105337.672772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1425417965.120955</v>
+        <v>1703355578.781799</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1560622722787101</v>
+        <v>0.1542863486970167</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03165572833488108</v>
+        <v>0.02770882838364504</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>712709020.5049999</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3457211498.611534</v>
+        <v>5238650676.488577</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09208003761385392</v>
+        <v>0.1238547189504506</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03226721602148268</v>
+        <v>0.04111974608588274</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1728605751.423146</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3513787225.904971</v>
+        <v>3097461772.640502</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1932753676781521</v>
+        <v>0.1606405946433199</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03180620451382445</v>
+        <v>0.02687908271655262</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1756893737.186127</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3011038963.027073</v>
+        <v>2813352261.432427</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1591371538321392</v>
+        <v>0.1768209554017635</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0229513564016909</v>
+        <v>0.02153970478545993</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>83</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1505519460.930906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1456375269.218426</v>
+        <v>1501063637.707648</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1735567728418376</v>
+        <v>0.1295108259988692</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04980332065655215</v>
+        <v>0.04347816388572907</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>728187611.1321495</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3980856041.265394</v>
+        <v>5289898441.300858</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06925825395298424</v>
+        <v>0.07779730544099925</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03713440630763565</v>
+        <v>0.04352522092255049</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1990428083.85414</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5398224259.349287</v>
+        <v>4445463502.864653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.13117596657842</v>
+        <v>0.1211292235314497</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03082704790422829</v>
+        <v>0.03106853510677588</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>76</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2699112263.866539</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5914909671.338306</v>
+        <v>3918406175.196001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124012998040415</v>
+        <v>0.1078178611769978</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02524467013506249</v>
+        <v>0.02378741421526678</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>88</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2957454739.983463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4073637984.529865</v>
+        <v>3457245761.092928</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1089351818411645</v>
+        <v>0.1256654734031318</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03730275240432212</v>
+        <v>0.04818555345170782</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>71</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2036818969.813349</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3307921896.551197</v>
+        <v>2596601014.427732</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08798453291783888</v>
+        <v>0.08565422305578452</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04596125283108844</v>
+        <v>0.0445876743360607</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1653960940.48498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5831558700.892878</v>
+        <v>3711549497.522072</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1387678281646614</v>
+        <v>0.1239524088762676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03181892399141621</v>
+        <v>0.03529236252136588</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2915779457.210341</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2030663633.242362</v>
+        <v>1521081743.285589</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1824849161140924</v>
+        <v>0.1806548121114356</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03664958979209693</v>
+        <v>0.04797874487184497</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1015331825.507441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3584923686.14044</v>
+        <v>2614183390.576087</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024668773763494</v>
+        <v>0.08068122276306391</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04708589231315589</v>
+        <v>0.03549658480498884</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>69</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1792461858.189576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5092596157.617159</v>
+        <v>4924654205.894224</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1131967802720634</v>
+        <v>0.1370890185871611</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02825933315536765</v>
+        <v>0.02410192176770122</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>89</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2546298191.419795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2246799280.95073</v>
+        <v>1618832699.212213</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1080100768840464</v>
+        <v>0.0736260005848106</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04520566397157189</v>
+        <v>0.04874604645377572</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1123399547.015892</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2329370278.691188</v>
+        <v>3329871244.077461</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08496982328231013</v>
+        <v>0.08804099869143443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03347370739593362</v>
+        <v>0.0394325315684237</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1164685196.726495</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3456931959.243319</v>
+        <v>3284388083.748673</v>
       </c>
       <c r="F74" t="n">
-        <v>0.134066169262673</v>
+        <v>0.1548656613587164</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02900970461405692</v>
+        <v>0.02651812156869625</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>83</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1728466005.50537</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1589294020.851097</v>
+        <v>2325093076.459314</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1165899957085373</v>
+        <v>0.1560466585132544</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02671781045900388</v>
+        <v>0.03255817741205343</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>794647013.1034901</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3596731067.752797</v>
+        <v>3302560799.793752</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09800491224713091</v>
+        <v>0.07608219134275095</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02123960001880593</v>
+        <v>0.03118658796331259</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>59</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1798365501.701617</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1600802794.778778</v>
+        <v>1496192362.197542</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1427811939579072</v>
+        <v>0.1513499304312186</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03020160068676535</v>
+        <v>0.02475374102120308</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>800401399.9833003</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4358717236.955081</v>
+        <v>4373990669.972523</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1261102863510611</v>
+        <v>0.09037151002837969</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0388110990879454</v>
+        <v>0.03660562961355839</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>85</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2179358558.524833</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476077525.336815</v>
+        <v>1675290236.45148</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1621500887185151</v>
+        <v>0.1504150574251493</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03896000419423896</v>
+        <v>0.03013985742509902</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>738038792.7032728</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4432116199.878947</v>
+        <v>3396209295.54882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1013048065586198</v>
+        <v>0.09155625600542125</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03699810208277531</v>
+        <v>0.02970786046649757</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>51</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2216058120.885731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3906194212.188714</v>
+        <v>4098765355.498604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1035342638213238</v>
+        <v>0.1319457099198424</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03257429179964809</v>
+        <v>0.02248084132791731</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1953097065.811025</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3916124347.982486</v>
+        <v>4876118993.111995</v>
       </c>
       <c r="F82" t="n">
-        <v>0.151017756172678</v>
+        <v>0.2054403382679823</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02121855560292931</v>
+        <v>0.02040908354123774</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1958062218.416628</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1512554744.24091</v>
+        <v>2043587609.644277</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1389482790639078</v>
+        <v>0.1333612295842665</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03847093380133901</v>
+        <v>0.03415311665362986</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>756277296.7541059</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2498882118.752452</v>
+        <v>2565220479.520927</v>
       </c>
       <c r="F84" t="n">
-        <v>0.105294263393818</v>
+        <v>0.08726188459926608</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0486723284375147</v>
+        <v>0.03762422480802059</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1249440991.31836</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2513998347.40509</v>
+        <v>2371584459.663407</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1376702600296788</v>
+        <v>0.1166959138395801</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03934650998931603</v>
+        <v>0.04178865917666294</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>92</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1256999180.181783</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2442380708.186183</v>
+        <v>2058549270.443725</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1243651928545219</v>
+        <v>0.1653452800446191</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02512147810910562</v>
+        <v>0.0182220421448638</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1221190443.240325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162423171.765335</v>
+        <v>1378335839.004302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1627742933890449</v>
+        <v>0.13919263432907</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02807261181255115</v>
+        <v>0.03733483636299046</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>581211631.8396858</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2414653106.604789</v>
+        <v>3722282711.672819</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1667549701864398</v>
+        <v>0.1199211593803275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03259983123953019</v>
+        <v>0.03543199062013046</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>96</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1207326525.888799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2169103317.81647</v>
+        <v>3389100953.738559</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389973426431973</v>
+        <v>0.09718184643108947</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03778450235947144</v>
+        <v>0.040823860133224</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1084551757.904675</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1976682934.847248</v>
+        <v>2043038630.069355</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1353195115200421</v>
+        <v>0.1247204714580192</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0553000051917022</v>
+        <v>0.04973064986593228</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>988341533.3949476</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1552596497.965736</v>
+        <v>1963603418.105293</v>
       </c>
       <c r="F91" t="n">
-        <v>0.188160116697329</v>
+        <v>0.1593617522785102</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05653381227450732</v>
+        <v>0.06202306642023286</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>776298280.8802798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2867832121.29626</v>
+        <v>1820873748.843871</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038542953663721</v>
+        <v>0.07137000631662246</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04515901565259427</v>
+        <v>0.03915919193481544</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>62</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1433916072.369568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3485793979.387509</v>
+        <v>4631795520.259599</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0898788213599012</v>
+        <v>0.1163719447528602</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04094215898572395</v>
+        <v>0.04053731818029098</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>72</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1742897023.550253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2393858397.213946</v>
+        <v>2386205530.483966</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1422107846264187</v>
+        <v>0.1445130813065545</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03236703226083027</v>
+        <v>0.03115559472258153</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1196929248.204687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2425393626.882555</v>
+        <v>2239803307.329027</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1251703935096031</v>
+        <v>0.09542987531599977</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03598388233348434</v>
+        <v>0.03801881741187602</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>59</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1212696854.955101</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2050755664.988</v>
+        <v>2131419770.46998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09350514543177521</v>
+        <v>0.119972475483277</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03020059129783347</v>
+        <v>0.04190504675474582</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1025377814.045288</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3674014528.358146</v>
+        <v>3445068737.066441</v>
       </c>
       <c r="F97" t="n">
-        <v>0.140297598901855</v>
+        <v>0.1541380010275165</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02623334612186889</v>
+        <v>0.02280600835055187</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1837007294.337276</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2680017751.911238</v>
+        <v>2621477940.439785</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09031539364286995</v>
+        <v>0.1077936924394102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03066947174690077</v>
+        <v>0.02694242534223776</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1340008838.940494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2235602852.454777</v>
+        <v>3402762540.830712</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1047434021044446</v>
+        <v>0.1291323902433154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02789358346650138</v>
+        <v>0.034514560550338</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1117801356.830052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3225420898.468561</v>
+        <v>3461468553.078732</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1779050841712141</v>
+        <v>0.1738467907579083</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01834456416300929</v>
+        <v>0.02434231895071552</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1612710458.067012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3148182044.225553</v>
+        <v>3210663496.894288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1867814360849009</v>
+        <v>0.1488062460915864</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04284193599471985</v>
+        <v>0.03664395296865286</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>98</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1574091130.729575</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_243.xlsx
+++ b/output/fit_clients/fit_round_243.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1993249763.004636</v>
+        <v>2232488145.10911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07866242260133825</v>
+        <v>0.07960659663993075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03614038355880474</v>
+        <v>0.03733606509358076</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2409106499.444767</v>
+        <v>1793406584.538984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1597343718642871</v>
+        <v>0.1191307890411971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04525530546097952</v>
+        <v>0.04858653386135029</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4817877938.643633</v>
+        <v>4038836127.142336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.135167123305875</v>
+        <v>0.1058441206020407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02535985779753375</v>
+        <v>0.03117054756742045</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2857705432.343278</v>
+        <v>3855142474.478982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08802038572251744</v>
+        <v>0.08999479549522255</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03172227830779795</v>
+        <v>0.03916753210997573</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2362783419.795012</v>
+        <v>1746205953.883375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1373862111612223</v>
+        <v>0.09884859137421806</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05165738295498692</v>
+        <v>0.03673446601507857</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2657195701.935002</v>
+        <v>2938716589.920815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09305856543164788</v>
+        <v>0.06883095001232627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04371086537482398</v>
+        <v>0.03958412590958753</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2595440589.446887</v>
+        <v>3199112937.382563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2170373620759172</v>
+        <v>0.1337959276453088</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03094681763630839</v>
+        <v>0.02802397069548331</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2153077535.229093</v>
+        <v>1606785553.680322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1697285446582912</v>
+        <v>0.137895629592739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03542451426366997</v>
+        <v>0.02585409160905153</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4922663013.194721</v>
+        <v>4779980743.617691</v>
       </c>
       <c r="F10" t="n">
-        <v>0.183098748641597</v>
+        <v>0.18951200161213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04517967039906882</v>
+        <v>0.04993430674503051</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2962251196.892879</v>
+        <v>3684961269.065252</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1539398697506796</v>
+        <v>0.1263368990147618</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03736218638323364</v>
+        <v>0.03652120633046474</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2359494673.80424</v>
+        <v>3022157246.882494</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1524951407297396</v>
+        <v>0.1447258682906697</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05399789755783669</v>
+        <v>0.03769969638814687</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5117509882.60649</v>
+        <v>4111527386.404125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07803403530345229</v>
+        <v>0.06980016640790503</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03030904302789779</v>
+        <v>0.02070274665522347</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3045303261.782051</v>
+        <v>3788508258.508401</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1852389606693792</v>
+        <v>0.1291795088655252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0333525267577414</v>
+        <v>0.03756674528693155</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1725752477.913624</v>
+        <v>1605725365.227053</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08477708135394312</v>
+        <v>0.09480961558484137</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04566094255355616</v>
+        <v>0.04635907767460226</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2749378976.609793</v>
+        <v>2662991452.109925</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0986140529324689</v>
+        <v>0.1050700220679483</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04960503606740116</v>
+        <v>0.04887670730125096</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5225362179.025774</v>
+        <v>4073951877.244618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1583990044792027</v>
+        <v>0.1303253704550367</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03353771266925853</v>
+        <v>0.0327051154990701</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2976878715.06981</v>
+        <v>2507205728.684312</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1635148254847576</v>
+        <v>0.1732442957487902</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03126635685846705</v>
+        <v>0.03449487453016414</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>927299451.7045842</v>
+        <v>1337545659.393306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380927575998941</v>
+        <v>0.144339420183451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0220259581172418</v>
+        <v>0.02515516852241078</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2583034061.751777</v>
+        <v>2278199570.525421</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1071047173359909</v>
+        <v>0.1428227840775799</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02719793023341878</v>
+        <v>0.02429610846343704</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1982283829.745855</v>
+        <v>2177496083.399653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07500516315894448</v>
+        <v>0.09596077731133679</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03520597579322647</v>
+        <v>0.02950781132851104</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3363211349.762682</v>
+        <v>2991716723.128535</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09339356031335816</v>
+        <v>0.09180019150434542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0523397273517249</v>
+        <v>0.03789466045544102</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1282120881.27257</v>
+        <v>1331219970.692234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1560352383878882</v>
+        <v>0.1686041538202479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03966736439852436</v>
+        <v>0.05174086411972458</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2666080497.285091</v>
+        <v>2571295853.562439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1337467074997697</v>
+        <v>0.1437866268624092</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03671803454454104</v>
+        <v>0.03629848520721884</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>951119642.9545306</v>
+        <v>965694156.3417004</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07889978153186929</v>
+        <v>0.09255680985173877</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02649032273284256</v>
+        <v>0.02175718828759182</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1200949995.412013</v>
+        <v>1322034846.183825</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07609858332962688</v>
+        <v>0.1207283430051172</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03244391525087149</v>
+        <v>0.0238932685302257</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3655096426.398798</v>
+        <v>3031189209.570741</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1278230738413445</v>
+        <v>0.1054398260427487</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02526625456752266</v>
+        <v>0.01860891398972781</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3143540875.299608</v>
+        <v>2921454341.949901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09597632948703347</v>
+        <v>0.1334031090953193</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0450706297807039</v>
+        <v>0.03189177427147515</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3702362839.102546</v>
+        <v>4015509602.44649</v>
       </c>
       <c r="F29" t="n">
-        <v>0.101932503816561</v>
+        <v>0.1406789638905889</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04640353042190037</v>
+        <v>0.04040820521597944</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1545279019.797425</v>
+        <v>2409679971.505686</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08953001061648175</v>
+        <v>0.128294989066642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02998683127568444</v>
+        <v>0.03487270300788253</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1341335353.799332</v>
+        <v>1445503156.197063</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08189478418790891</v>
+        <v>0.09834524198805701</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04207154374618412</v>
+        <v>0.03179234055784855</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1579580531.539937</v>
+        <v>1709868064.00946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07591624581607306</v>
+        <v>0.1169812935546574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03402475740056463</v>
+        <v>0.02406465330765069</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2231960706.284256</v>
+        <v>2805789045.590423</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1340939295225114</v>
+        <v>0.1321080969519723</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04411490541381525</v>
+        <v>0.05573784765594219</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1513121481.871129</v>
+        <v>1190939877.12831</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08500054463856915</v>
+        <v>0.1205681557540192</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02812100964263651</v>
+        <v>0.02525548848585685</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117381555.359931</v>
+        <v>1048415905.338839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09585906558579094</v>
+        <v>0.09565961784657465</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04101711800285377</v>
+        <v>0.02869062410198715</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2982396878.302493</v>
+        <v>3110462150.283672</v>
       </c>
       <c r="F36" t="n">
-        <v>0.138331970608776</v>
+        <v>0.1379987230169749</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02323857810146695</v>
+        <v>0.0256526811249476</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2322410901.72294</v>
+        <v>2131943761.996604</v>
       </c>
       <c r="F37" t="n">
-        <v>0.107255387403526</v>
+        <v>0.09629046310813265</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02640846799784369</v>
+        <v>0.03401990333862103</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1822714027.678925</v>
+        <v>1391747708.724496</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0826778376238992</v>
+        <v>0.08058817344052238</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03310924637145942</v>
+        <v>0.02851531492634407</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1514640731.464731</v>
+        <v>1361909233.635463</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1767065100868157</v>
+        <v>0.1478276661264722</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03187976330154724</v>
+        <v>0.02587343046886078</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1517971188.156265</v>
+        <v>1255642629.941015</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1415908038077365</v>
+        <v>0.1441318945013624</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04395232826128938</v>
+        <v>0.04796475184091247</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2104693201.022724</v>
+        <v>1771652298.85098</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1427793849547302</v>
+        <v>0.1221266324894111</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03038063730549067</v>
+        <v>0.03223699634887257</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4042536230.246114</v>
+        <v>3151315928.125424</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1132822193092114</v>
+        <v>0.08558714904479471</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02973665101776784</v>
+        <v>0.03783795733540969</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3004129283.902514</v>
+        <v>2935857585.928555</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1452366323705321</v>
+        <v>0.1827504373135495</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02324131476082165</v>
+        <v>0.02506717622134197</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1439197131.325093</v>
+        <v>2114704822.085817</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0982647357547434</v>
+        <v>0.07684658995019947</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03108659358212364</v>
+        <v>0.0293313960589388</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2065103972.666662</v>
+        <v>1566316676.183851</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1538897221103841</v>
+        <v>0.1805547403150742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04287671343136393</v>
+        <v>0.04744402941883497</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4667741531.294054</v>
+        <v>4181062325.867128</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1407984484186533</v>
+        <v>0.1491822146005405</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04946103486892729</v>
+        <v>0.05705359049894098</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3906343248.278883</v>
+        <v>4780755508.171472</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1788064924388084</v>
+        <v>0.1821430816896084</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03647601525261027</v>
+        <v>0.05538314057769138</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2971561904.76403</v>
+        <v>3752500529.953442</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08620071579777842</v>
+        <v>0.09935479480876536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02674096884937991</v>
+        <v>0.03709714708611929</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1778992949.389686</v>
+        <v>1973014700.725771</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1832286765294844</v>
+        <v>0.1461643526639644</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0407909592127874</v>
+        <v>0.04006615508135066</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3160232143.597527</v>
+        <v>3357252112.466536</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1119593143079848</v>
+        <v>0.1756625958804304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03702850988641725</v>
+        <v>0.0428002806738108</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1517951904.572286</v>
+        <v>1372470419.525957</v>
       </c>
       <c r="F51" t="n">
-        <v>0.195140374266035</v>
+        <v>0.155282555658342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03858664712874413</v>
+        <v>0.0516234752564775</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4414996702.09788</v>
+        <v>3603351815.985604</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1114223986294249</v>
+        <v>0.1050050763420004</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05000436601451782</v>
+        <v>0.04623532742854808</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3698319389.693673</v>
+        <v>2729436401.020075</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1853672644494249</v>
+        <v>0.155412036848189</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03162277917747584</v>
+        <v>0.02845839583810661</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4257506506.828014</v>
+        <v>4495465510.109525</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1348574765715569</v>
+        <v>0.1457820067165834</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03304403611193645</v>
+        <v>0.04883713991086506</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3078370753.451275</v>
+        <v>3918737688.399903</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1811748311297599</v>
+        <v>0.1531658637395839</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02836166159837736</v>
+        <v>0.02218059459391526</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1695234910.261612</v>
+        <v>1284525794.975987</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628441620486439</v>
+        <v>0.1152650031963792</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03578747527340199</v>
+        <v>0.04412065356618448</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4482841740.538013</v>
+        <v>3762586199.831765</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1194659552200245</v>
+        <v>0.1612772418607308</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02712010576062328</v>
+        <v>0.02123522172792121</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1703355578.781799</v>
+        <v>1267787854.064512</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1542863486970167</v>
+        <v>0.1709253752028495</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02770882838364504</v>
+        <v>0.03476592139704873</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5238650676.488577</v>
+        <v>4270743063.111414</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1238547189504506</v>
+        <v>0.102254675779696</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04111974608588274</v>
+        <v>0.03327495364281363</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3097461772.640502</v>
+        <v>2866712620.007365</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1606405946433199</v>
+        <v>0.1575547084324777</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02687908271655262</v>
+        <v>0.02968637033177251</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2813352261.432427</v>
+        <v>2351983956.627553</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1768209554017635</v>
+        <v>0.1563974090595177</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02153970478545993</v>
+        <v>0.02859967294542614</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1501063637.707648</v>
+        <v>2053041603.727741</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1295108259988692</v>
+        <v>0.1283566531685873</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04347816388572907</v>
+        <v>0.03357311497845268</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5289898441.300858</v>
+        <v>4691193592.983809</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07779730544099925</v>
+        <v>0.0934269864907999</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04352522092255049</v>
+        <v>0.02931478158651913</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4445463502.864653</v>
+        <v>4444009658.732582</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1211292235314497</v>
+        <v>0.1663370877534304</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03106853510677588</v>
+        <v>0.02770901242628505</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3918406175.196001</v>
+        <v>5952255705.784226</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1078178611769978</v>
+        <v>0.1373594151665007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02378741421526678</v>
+        <v>0.02864102669142817</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3457245761.092928</v>
+        <v>5231259840.909309</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256654734031318</v>
+        <v>0.1059524960903447</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04818555345170782</v>
+        <v>0.04639055153252138</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596601014.427732</v>
+        <v>2949644082.249554</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08565422305578452</v>
+        <v>0.0864950269803902</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0445876743360607</v>
+        <v>0.04687320347617727</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3711549497.522072</v>
+        <v>4360914091.557872</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1239524088762676</v>
+        <v>0.09716968554500068</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03529236252136588</v>
+        <v>0.03481383219003521</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1521081743.285589</v>
+        <v>1705042570.007084</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1806548121114356</v>
+        <v>0.1229624166154124</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04797874487184497</v>
+        <v>0.04192441549901264</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2614183390.576087</v>
+        <v>2378816482.458014</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08068122276306391</v>
+        <v>0.09733213208715534</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03549658480498884</v>
+        <v>0.03692684299798323</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4924654205.894224</v>
+        <v>4945193481.505591</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1370890185871611</v>
+        <v>0.1603511392687929</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02410192176770122</v>
+        <v>0.02094420618541586</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1618832699.212213</v>
+        <v>1533816589.43189</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0736260005848106</v>
+        <v>0.07943708000828931</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04874604645377572</v>
+        <v>0.05017879850370512</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3329871244.077461</v>
+        <v>3503830004.047696</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08804099869143443</v>
+        <v>0.1052990032524107</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0394325315684237</v>
+        <v>0.04090410632608545</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3284388083.748673</v>
+        <v>2784891458.440513</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1548656613587164</v>
+        <v>0.1667673536585945</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02651812156869625</v>
+        <v>0.02518539750077355</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2325093076.459314</v>
+        <v>1964570104.167546</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1560466585132544</v>
+        <v>0.1277927970249852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03255817741205343</v>
+        <v>0.03311581940260159</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3302560799.793752</v>
+        <v>3273418409.227429</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07608219134275095</v>
+        <v>0.1193124222830857</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03118658796331259</v>
+        <v>0.02743091228683559</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1496192362.197542</v>
+        <v>1975528244.300741</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1513499304312186</v>
+        <v>0.1369621849428371</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02475374102120308</v>
+        <v>0.03077401844892773</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4373990669.972523</v>
+        <v>4364269457.839915</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09037151002837969</v>
+        <v>0.1140183157572957</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03660562961355839</v>
+        <v>0.03984040373248462</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1675290236.45148</v>
+        <v>1793733510.785403</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1504150574251493</v>
+        <v>0.1614195326322344</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03013985742509902</v>
+        <v>0.0405650925301607</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3396209295.54882</v>
+        <v>3731589457.365086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09155625600542125</v>
+        <v>0.08194115898244306</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02970786046649757</v>
+        <v>0.03652716378278744</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4098765355.498604</v>
+        <v>3731344828.093596</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1319457099198424</v>
+        <v>0.1336024413932102</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02248084132791731</v>
+        <v>0.02852117053652549</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4876118993.111995</v>
+        <v>5546385884.207976</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2054403382679823</v>
+        <v>0.1899722519165012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02040908354123774</v>
+        <v>0.02497051180901268</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2043587609.644277</v>
+        <v>2370370977.769831</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1333612295842665</v>
+        <v>0.1556264892101444</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03415311665362986</v>
+        <v>0.03074210568728439</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2565220479.520927</v>
+        <v>1793479704.60598</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08726188459926608</v>
+        <v>0.0871895540565029</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03762422480802059</v>
+        <v>0.03428328690066993</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2371584459.663407</v>
+        <v>3373301370.499408</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1166959138395801</v>
+        <v>0.1186638437337917</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04178865917666294</v>
+        <v>0.05136039839575358</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2058549270.443725</v>
+        <v>1900990908.491271</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1653452800446191</v>
+        <v>0.1703312036272123</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0182220421448638</v>
+        <v>0.02721814873803005</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1378335839.004302</v>
+        <v>1252493677.221535</v>
       </c>
       <c r="F87" t="n">
-        <v>0.13919263432907</v>
+        <v>0.1632869058167283</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03733483636299046</v>
+        <v>0.03597528108495748</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3722282711.672819</v>
+        <v>2257918999.203753</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1199211593803275</v>
+        <v>0.1454596715199145</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03543199062013046</v>
+        <v>0.03673208263447226</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3389100953.738559</v>
+        <v>2399224829.925</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09718184643108947</v>
+        <v>0.1434994076473265</v>
       </c>
       <c r="G89" t="n">
-        <v>0.040823860133224</v>
+        <v>0.02917981058616177</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2043038630.069355</v>
+        <v>1590401569.107412</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1247204714580192</v>
+        <v>0.1235337330441236</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04973064986593228</v>
+        <v>0.04930065022549122</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1963603418.105293</v>
+        <v>1455775271.067872</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1593617522785102</v>
+        <v>0.156423651316083</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06202306642023286</v>
+        <v>0.03812068169285434</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1820873748.843871</v>
+        <v>2834237563.073724</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07137000631662246</v>
+        <v>0.09337117064317574</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03915919193481544</v>
+        <v>0.04162157055598432</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4631795520.259599</v>
+        <v>4595751427.577252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1163719447528602</v>
+        <v>0.1076680833901774</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04053731818029098</v>
+        <v>0.04546438287827304</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2386205530.483966</v>
+        <v>1649465442.641136</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1445130813065545</v>
+        <v>0.1566454610089659</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03115559472258153</v>
+        <v>0.03484185356125763</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2239803307.329027</v>
+        <v>2814910099.884823</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09542987531599977</v>
+        <v>0.1283680822191419</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03801881741187602</v>
+        <v>0.04961596440817291</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2131419770.46998</v>
+        <v>1584178423.516438</v>
       </c>
       <c r="F96" t="n">
-        <v>0.119972475483277</v>
+        <v>0.1162277531168788</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04190504675474582</v>
+        <v>0.03050972246817572</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3445068737.066441</v>
+        <v>4548783699.663077</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1541380010275165</v>
+        <v>0.1636744425425546</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02280600835055187</v>
+        <v>0.02763248078737982</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2621477940.439785</v>
+        <v>3070934189.136628</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1077936924394102</v>
+        <v>0.1267658219561127</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02694242534223776</v>
+        <v>0.02727447199550863</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3402762540.830712</v>
+        <v>2742308513.977335</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1291323902433154</v>
+        <v>0.1004027774309092</v>
       </c>
       <c r="G99" t="n">
-        <v>0.034514560550338</v>
+        <v>0.0288429881456722</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3461468553.078732</v>
+        <v>4423341182.843331</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1738467907579083</v>
+        <v>0.1352092923714077</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02434231895071552</v>
+        <v>0.02232348871083819</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3210663496.894288</v>
+        <v>2920679795.746108</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1488062460915864</v>
+        <v>0.2000075085551017</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03664395296865286</v>
+        <v>0.04568307522516456</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_243.xlsx
+++ b/output/fit_clients/fit_round_243.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2232488145.10911</v>
+        <v>1574364254.698211</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07960659663993075</v>
+        <v>0.08240758873585617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03733606509358076</v>
+        <v>0.03393759844971125</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1793406584.538984</v>
+        <v>1840093628.188918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1191307890411971</v>
+        <v>0.1429358147083771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04858653386135029</v>
+        <v>0.04243930147777773</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4038836127.142336</v>
+        <v>3400403320.565094</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1058441206020407</v>
+        <v>0.1005705178832139</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03117054756742045</v>
+        <v>0.0283355247579318</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131</v>
+      </c>
+      <c r="J4" t="n">
+        <v>243</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3855142474.478982</v>
+        <v>2704086257.834024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08999479549522255</v>
+        <v>0.0712552700763006</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03916753210997573</v>
+        <v>0.04041331846753259</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>242</v>
+      </c>
+      <c r="K5" t="n">
+        <v>54.28899018404516</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1746205953.883375</v>
+        <v>2164580856.180711</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09884859137421806</v>
+        <v>0.1262965061231976</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03673446601507857</v>
+        <v>0.05180864540248918</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2938716589.920815</v>
+        <v>2128956608.683908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06883095001232627</v>
+        <v>0.07423737285534614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03958412590958753</v>
+        <v>0.03268779738213492</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3199112937.382563</v>
+        <v>2524945704.990661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1337959276453088</v>
+        <v>0.1525727037244081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02802397069548331</v>
+        <v>0.02634471922360211</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1606785553.680322</v>
+        <v>2253198188.806981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.137895629592739</v>
+        <v>0.1714161264276289</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02585409160905153</v>
+        <v>0.03384605205997229</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4779980743.617691</v>
+        <v>4047671317.301441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18951200161213</v>
+        <v>0.181945277377111</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04993430674503051</v>
+        <v>0.05122764643091874</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>222</v>
+      </c>
+      <c r="J10" t="n">
+        <v>243</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110.230025997613</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3684961269.065252</v>
+        <v>2741885135.465801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1263368990147618</v>
+        <v>0.15941622472712</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03652120633046474</v>
+        <v>0.03717925506960737</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242</v>
+      </c>
+      <c r="K11" t="n">
+        <v>52.69333232773405</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3022157246.882494</v>
+        <v>2580582224.661272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1447258682906697</v>
+        <v>0.1203418482635689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03769969638814687</v>
+        <v>0.05161087881300767</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4111527386.404125</v>
+        <v>4046620528.4962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06980016640790503</v>
+        <v>0.06701362027704902</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02070274665522347</v>
+        <v>0.02149315569712857</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>123</v>
+      </c>
+      <c r="J13" t="n">
+        <v>242</v>
+      </c>
+      <c r="K13" t="n">
+        <v>105.3973784399978</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3788508258.508401</v>
+        <v>3512326571.488142</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291795088655252</v>
+        <v>0.1392815134284266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03756674528693155</v>
+        <v>0.02943369275630687</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>243</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1605725365.227053</v>
+        <v>1587968058.24689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09480961558484137</v>
+        <v>0.101223640938722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04635907767460226</v>
+        <v>0.03384829557267233</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2662991452.109925</v>
+        <v>2728671162.00193</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1050700220679483</v>
+        <v>0.09733532726473645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04887670730125096</v>
+        <v>0.04936969524250871</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4073951877.244618</v>
+        <v>3766757583.913805</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303253704550367</v>
+        <v>0.1627412176222939</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0327051154990701</v>
+        <v>0.04418702153200871</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>117</v>
+      </c>
+      <c r="J17" t="n">
+        <v>242</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82.93243098805158</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2507205728.684312</v>
+        <v>2653276153.839494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1732442957487902</v>
+        <v>0.1164532230080406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03449487453016414</v>
+        <v>0.02256654774657785</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" t="n">
+        <v>241</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1337545659.393306</v>
+        <v>946801694.9332914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.144339420183451</v>
+        <v>0.1241443419565796</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02515516852241078</v>
+        <v>0.02040594659221796</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2278199570.525421</v>
+        <v>2087077385.426334</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1428227840775799</v>
+        <v>0.1197763968323419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429610846343704</v>
+        <v>0.02788892456520847</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2177496083.399653</v>
+        <v>1817986458.920434</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09596077731133679</v>
+        <v>0.09322213939697213</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02950781132851104</v>
+        <v>0.04270825934703879</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2991716723.128535</v>
+        <v>3882306017.202958</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09180019150434542</v>
+        <v>0.1300081724860675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03789466045544102</v>
+        <v>0.04231472628585047</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>243</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1331219970.692234</v>
+        <v>1015723139.754628</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1686041538202479</v>
+        <v>0.1711267580133916</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05174086411972458</v>
+        <v>0.04018079934892785</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2571295853.562439</v>
+        <v>3230551305.628139</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1437866268624092</v>
+        <v>0.1204585769939026</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03629848520721884</v>
+        <v>0.0369470753672787</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>965694156.3417004</v>
+        <v>1128492509.932481</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09255680985173877</v>
+        <v>0.07585761653850685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02175718828759182</v>
+        <v>0.0253034121033322</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1322034846.183825</v>
+        <v>1034929153.265278</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1207283430051172</v>
+        <v>0.08779505509604098</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0238932685302257</v>
+        <v>0.03350136653686875</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3031189209.570741</v>
+        <v>3154449999.89072</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1054398260427487</v>
+        <v>0.1268515273009444</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01860891398972781</v>
+        <v>0.02218961327606029</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="n">
+        <v>55.92532284970584</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2921454341.949901</v>
+        <v>2420691553.388255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1334031090953193</v>
+        <v>0.1438868333444831</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03189177427147515</v>
+        <v>0.03929390858751907</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4015509602.44649</v>
+        <v>5091739341.847013</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1406789638905889</v>
+        <v>0.1498401035588093</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04040820521597944</v>
+        <v>0.0442628109001179</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>231</v>
+      </c>
+      <c r="J29" t="n">
+        <v>243</v>
+      </c>
+      <c r="K29" t="n">
+        <v>114.011887770003</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2409679971.505686</v>
+        <v>2063385789.951885</v>
       </c>
       <c r="F30" t="n">
-        <v>0.128294989066642</v>
+        <v>0.1373921519881505</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03487270300788253</v>
+        <v>0.02855963605658744</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1445503156.197063</v>
+        <v>911888160.1319152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09834524198805701</v>
+        <v>0.08987664092696632</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03179234055784855</v>
+        <v>0.03680134105216995</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709868064.00946</v>
+        <v>1272600888.384319</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1169812935546574</v>
+        <v>0.09255450343162712</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02406465330765069</v>
+        <v>0.02607472052557899</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805789045.590423</v>
+        <v>1922042583.82689</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1321080969519723</v>
+        <v>0.1544237829080078</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05573784765594219</v>
+        <v>0.04772122750972308</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1190939877.12831</v>
+        <v>1472789185.852799</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205681557540192</v>
+        <v>0.1208446898118395</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02525548848585685</v>
+        <v>0.02778081947599048</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1048415905.338839</v>
+        <v>951166769.2805024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09565961784657465</v>
+        <v>0.103137968633819</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02869062410198715</v>
+        <v>0.04043678970057948</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3110462150.283672</v>
+        <v>2327279429.533012</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1379987230169749</v>
+        <v>0.1303835771224676</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0256526811249476</v>
+        <v>0.01777670783981734</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2131943761.996604</v>
+        <v>2148892635.395971</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09629046310813265</v>
+        <v>0.1084058590115462</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03401990333862103</v>
+        <v>0.03902050316210546</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1391747708.724496</v>
+        <v>1878725741.467869</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08058817344052238</v>
+        <v>0.08051526033361535</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02851531492634407</v>
+        <v>0.02468404227780248</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1361909233.635463</v>
+        <v>2023152132.303807</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1478276661264722</v>
+        <v>0.145512647275177</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02587343046886078</v>
+        <v>0.02086064459538668</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1255642629.941015</v>
+        <v>1324718992.657205</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1441318945013624</v>
+        <v>0.1363729409744713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04796475184091247</v>
+        <v>0.04957214433668428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1771652298.85098</v>
+        <v>1939966106.682103</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1221266324894111</v>
+        <v>0.1079231314803418</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03223699634887257</v>
+        <v>0.03629291547190582</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3151315928.125424</v>
+        <v>2648973605.640021</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08558714904479471</v>
+        <v>0.09630471777447719</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03783795733540969</v>
+        <v>0.02960041410367269</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
+        <v>241</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2935857585.928555</v>
+        <v>1893243594.081757</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1827504373135495</v>
+        <v>0.1671771962813148</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02506717622134197</v>
+        <v>0.02334848348145102</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2114704822.085817</v>
+        <v>2168859423.895838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07684658995019947</v>
+        <v>0.09620283829553834</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0293313960589388</v>
+        <v>0.024790177035175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1566316676.183851</v>
+        <v>1853019973.46902</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1805547403150742</v>
+        <v>0.1637239040085899</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04744402941883497</v>
+        <v>0.05357531730830927</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4181062325.867128</v>
+        <v>4689063704.054177</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1491822146005405</v>
+        <v>0.1215546900959645</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05705359049894098</v>
+        <v>0.05167785116006245</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>140</v>
+      </c>
+      <c r="J46" t="n">
+        <v>242</v>
+      </c>
+      <c r="K46" t="n">
+        <v>104.2555776119508</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4780755508.171472</v>
+        <v>3461714195.259735</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1821430816896084</v>
+        <v>0.1991676019875312</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05538314057769138</v>
+        <v>0.04818779727259014</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>109</v>
+      </c>
+      <c r="J47" t="n">
+        <v>242</v>
+      </c>
+      <c r="K47" t="n">
+        <v>62.70113959834809</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3752500529.953442</v>
+        <v>2926799596.344361</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09935479480876536</v>
+        <v>0.1085870345461263</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03709714708611929</v>
+        <v>0.03720073987804805</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>121</v>
+      </c>
+      <c r="J48" t="n">
+        <v>241</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1973014700.725771</v>
+        <v>1921209162.128632</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1461643526639644</v>
+        <v>0.189907382662756</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04006615508135066</v>
+        <v>0.03347401368070741</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3357252112.466536</v>
+        <v>3066331112.310862</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1756625958804304</v>
+        <v>0.1465149893397686</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0428002806738108</v>
+        <v>0.04115021419070523</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>79</v>
+      </c>
+      <c r="J50" t="n">
+        <v>241</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1372470419.525957</v>
+        <v>1426281602.146329</v>
       </c>
       <c r="F51" t="n">
-        <v>0.155282555658342</v>
+        <v>0.1820025691455688</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0516234752564775</v>
+        <v>0.04377110877804535</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3603351815.985604</v>
+        <v>4111554139.850487</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1050050763420004</v>
+        <v>0.09691211472950953</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04623532742854808</v>
+        <v>0.05240384940125203</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>157</v>
+      </c>
+      <c r="J52" t="n">
+        <v>243</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2729436401.020075</v>
+        <v>3310271397.996107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.155412036848189</v>
+        <v>0.1604936018624452</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02845839583810661</v>
+        <v>0.0277285453132269</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4495465510.109525</v>
+        <v>3102846917.285261</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1457820067165834</v>
+        <v>0.1375982083763035</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04883713991086506</v>
+        <v>0.05092465568186926</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>242</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.67828839315353</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3918737688.399903</v>
+        <v>4762901700.637882</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1531658637395839</v>
+        <v>0.1447972368797286</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02218059459391526</v>
+        <v>0.02325937042877055</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>109</v>
+      </c>
+      <c r="J55" t="n">
+        <v>242</v>
+      </c>
+      <c r="K55" t="n">
+        <v>103.4070129282418</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1284525794.975987</v>
+        <v>1323879251.106566</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1152650031963792</v>
+        <v>0.1171331864280424</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04412065356618448</v>
+        <v>0.04651955768653307</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3762586199.831765</v>
+        <v>3512988111.439298</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1612772418607308</v>
+        <v>0.1428495004139713</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02123522172792121</v>
+        <v>0.01723229531078471</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>95</v>
+      </c>
+      <c r="J57" t="n">
+        <v>243</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1267787854.064512</v>
+        <v>1666813762.826898</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1709253752028495</v>
+        <v>0.1676566864533801</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03476592139704873</v>
+        <v>0.03209462155803154</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4270743063.111414</v>
+        <v>3375173121.169484</v>
       </c>
       <c r="F59" t="n">
-        <v>0.102254675779696</v>
+        <v>0.1152506479276842</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03327495364281363</v>
+        <v>0.03494957436880491</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>117</v>
+      </c>
+      <c r="J59" t="n">
+        <v>243</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2866712620.007365</v>
+        <v>3752895669.032296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1575547084324777</v>
+        <v>0.2037829944688502</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02968637033177251</v>
+        <v>0.02167209457519531</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>243</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2351983956.627553</v>
+        <v>2282084587.953656</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1563974090595177</v>
+        <v>0.1332388523641268</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02859967294542614</v>
+        <v>0.02055275888785593</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2053041603.727741</v>
+        <v>1410197922.576444</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1283566531685873</v>
+        <v>0.1735043080865212</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03357311497845268</v>
+        <v>0.03221377580466982</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4691193592.983809</v>
+        <v>5088406408.947415</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0934269864907999</v>
+        <v>0.07827457763141991</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931478158651913</v>
+        <v>0.03530474176200644</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>118</v>
+      </c>
+      <c r="J63" t="n">
+        <v>243</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4444009658.732582</v>
+        <v>5232792804.7244</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1663370877534304</v>
+        <v>0.1421433507835026</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02770901242628505</v>
+        <v>0.03051639992701738</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>120</v>
+      </c>
+      <c r="J64" t="n">
+        <v>242</v>
+      </c>
+      <c r="K64" t="n">
+        <v>102.4496387871367</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5952255705.784226</v>
+        <v>4988726310.980257</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1373594151665007</v>
+        <v>0.148054507803702</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02864102669142817</v>
+        <v>0.02149038887683825</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>194</v>
+      </c>
+      <c r="J65" t="n">
+        <v>243</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5231259840.909309</v>
+        <v>3581268845.190536</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1059524960903447</v>
+        <v>0.123563328559253</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04639055153252138</v>
+        <v>0.05019535630292038</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>120</v>
+      </c>
+      <c r="J66" t="n">
+        <v>242</v>
+      </c>
+      <c r="K66" t="n">
+        <v>73.71083347691402</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2949644082.249554</v>
+        <v>3393236640.074375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0864950269803902</v>
+        <v>0.07825890922977888</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04687320347617727</v>
+        <v>0.03816764825475541</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4360914091.557872</v>
+        <v>5240629428.412855</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09716968554500068</v>
+        <v>0.1401556647521391</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03481383219003521</v>
+        <v>0.03375191887364257</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>123</v>
+      </c>
+      <c r="J68" t="n">
+        <v>243</v>
+      </c>
+      <c r="K68" t="n">
+        <v>105.4413578685323</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1705042570.007084</v>
+        <v>1532559402.333278</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1229624166154124</v>
+        <v>0.1753999026865705</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04192441549901264</v>
+        <v>0.04043596834149699</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2378816482.458014</v>
+        <v>3622182732.235519</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09733213208715534</v>
+        <v>0.07420038778185131</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03692684299798323</v>
+        <v>0.04575073931939725</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>38</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4945193481.505591</v>
+        <v>4051477025.017429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1603511392687929</v>
+        <v>0.1688105262142152</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02094420618541586</v>
+        <v>0.03081517047407749</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>183</v>
+      </c>
+      <c r="J71" t="n">
+        <v>243</v>
+      </c>
+      <c r="K71" t="n">
+        <v>108.92850862993</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1533816589.43189</v>
+        <v>2240732770.448434</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07943708000828931</v>
+        <v>0.07767434550445015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05017879850370512</v>
+        <v>0.04716543770565289</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3503830004.047696</v>
+        <v>3574773926.600752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1052990032524107</v>
+        <v>0.1042154360841751</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04090410632608545</v>
+        <v>0.03705618595199765</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>243</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2784891458.440513</v>
+        <v>2455194913.029575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1667673536585945</v>
+        <v>0.1780048450688342</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02518539750077355</v>
+        <v>0.02887658056888678</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1964570104.167546</v>
+        <v>2391859003.178457</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1277927970249852</v>
+        <v>0.1047639502570935</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03311581940260159</v>
+        <v>0.03345095151176306</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3273418409.227429</v>
+        <v>5346880671.355238</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1193124222830857</v>
+        <v>0.1231623847785157</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02743091228683559</v>
+        <v>0.03163924564947649</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>113</v>
+      </c>
+      <c r="J76" t="n">
+        <v>242</v>
+      </c>
+      <c r="K76" t="n">
+        <v>94.67228669067173</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1975528244.300741</v>
+        <v>2009579090.302499</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1369621849428371</v>
+        <v>0.1405013674815497</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03077401844892773</v>
+        <v>0.02539692776147402</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4364269457.839915</v>
+        <v>4556388162.82522</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1140183157572957</v>
+        <v>0.1273270577367854</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03984040373248462</v>
+        <v>0.03908521748973965</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>121</v>
+      </c>
+      <c r="J78" t="n">
+        <v>243</v>
+      </c>
+      <c r="K78" t="n">
+        <v>106.0224036500446</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1793733510.785403</v>
+        <v>1639617707.219043</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1614195326322344</v>
+        <v>0.1671248800403446</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0405650925301607</v>
+        <v>0.03995763969354432</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3731589457.365086</v>
+        <v>5246618926.834826</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08194115898244306</v>
+        <v>0.07747860907400846</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03652716378278744</v>
+        <v>0.03768044600997859</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>118</v>
+      </c>
+      <c r="J80" t="n">
+        <v>243</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3731344828.093596</v>
+        <v>3846502003.986036</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1336024413932102</v>
+        <v>0.1218377650882792</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02852117053652549</v>
+        <v>0.02604880836137541</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>112</v>
+      </c>
+      <c r="J81" t="n">
+        <v>242</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80.89707237363227</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5546385884.207976</v>
+        <v>3870567945.25772</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1899722519165012</v>
+        <v>0.1890596115981567</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02497051180901268</v>
+        <v>0.02650520131223346</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>183</v>
+      </c>
+      <c r="J82" t="n">
+        <v>243</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2370370977.769831</v>
+        <v>2275578932.516513</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1556264892101444</v>
+        <v>0.1149456433823261</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03074210568728439</v>
+        <v>0.04376130682120916</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1793479704.60598</v>
+        <v>2164771306.291152</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0871895540565029</v>
+        <v>0.1086780863904463</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03428328690066993</v>
+        <v>0.03495247048704771</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3373301370.499408</v>
+        <v>2566455428.810873</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1186638437337917</v>
+        <v>0.1715190519953551</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05136039839575358</v>
+        <v>0.03914223477175618</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="n">
+        <v>48.58842451352357</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1900990908.491271</v>
+        <v>2546728903.04602</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703312036272123</v>
+        <v>0.1454585316173844</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02721814873803005</v>
+        <v>0.02376723037500419</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1252493677.221535</v>
+        <v>1298847799.720272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1632869058167283</v>
+        <v>0.1835332116418038</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03597528108495748</v>
+        <v>0.03301760726161142</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2257918999.203753</v>
+        <v>3047487463.953087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454596715199145</v>
+        <v>0.1496592059886229</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03673208263447226</v>
+        <v>0.03931538158813673</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2399224829.925</v>
+        <v>2846758046.931453</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1434994076473265</v>
+        <v>0.1095844953850687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02917981058616177</v>
+        <v>0.03619149840099285</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1590401569.107412</v>
+        <v>2011059053.706172</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235337330441236</v>
+        <v>0.1056221874258358</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04930065022549122</v>
+        <v>0.04556568210974334</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1455775271.067872</v>
+        <v>2035340437.844461</v>
       </c>
       <c r="F91" t="n">
-        <v>0.156423651316083</v>
+        <v>0.1629722461500584</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03812068169285434</v>
+        <v>0.05853671341187557</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2834237563.073724</v>
+        <v>2639392521.160752</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09337117064317574</v>
+        <v>0.07623871075156374</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04162157055598432</v>
+        <v>0.02898689712598431</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4595751427.577252</v>
+        <v>4167472659.071719</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1076680833901774</v>
+        <v>0.1091624952987878</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04546438287827304</v>
+        <v>0.04292219160822332</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>108</v>
+      </c>
+      <c r="J93" t="n">
+        <v>242</v>
+      </c>
+      <c r="K93" t="n">
+        <v>101.262450265758</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1649465442.641136</v>
+        <v>2111361046.222412</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1566454610089659</v>
+        <v>0.1144541956126774</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03484185356125763</v>
+        <v>0.03466849071977328</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2814910099.884823</v>
+        <v>2445044234.121509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1283680822191419</v>
+        <v>0.09313997511358772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04961596440817291</v>
+        <v>0.04865696221499325</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1584178423.516438</v>
+        <v>1551213784.82692</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1162277531168788</v>
+        <v>0.1271898240992877</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03050972246817572</v>
+        <v>0.02951732765106119</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4548783699.663077</v>
+        <v>3381765201.227775</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1636744425425546</v>
+        <v>0.1658231181685204</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02763248078737982</v>
+        <v>0.01989344448476711</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>117</v>
+      </c>
+      <c r="J97" t="n">
+        <v>243</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3070934189.136628</v>
+        <v>2802114651.765452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1267658219561127</v>
+        <v>0.1035946961050595</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02727447199550863</v>
+        <v>0.02682697276631538</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2742308513.977335</v>
+        <v>2850395369.431992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1004027774309092</v>
+        <v>0.1248371009143989</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0288429881456722</v>
+        <v>0.02138164891287761</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4423341182.843331</v>
+        <v>3064607114.708651</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1352092923714077</v>
+        <v>0.1571783162809083</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02232348871083819</v>
+        <v>0.02229832213295535</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>101</v>
+      </c>
+      <c r="J100" t="n">
+        <v>241</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2920679795.746108</v>
+        <v>2702629137.294537</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2000075085551017</v>
+        <v>0.1466064990705847</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04568307522516456</v>
+        <v>0.04034259809362861</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
